--- a/biology/Microbiologie/Parasitisme_intracellulaire_des_bactéries/Parasitisme_intracellulaire_des_bactéries.xlsx
+++ b/biology/Microbiologie/Parasitisme_intracellulaire_des_bactéries/Parasitisme_intracellulaire_des_bactéries.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parasitisme_intracellulaire_des_bact%C3%A9ries</t>
+          <t>Parasitisme_intracellulaire_des_bactéries</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parasitisme intracellulaire est un type d'endoparasitisme dans lequel le parasitisme se fait au sein des cellules (ou de la cellule dans le cas de bactéries unicellulaires).
 Le parasite peut survivre dans trois compartiments différents de la cellule :
